--- a/tietokanta/class_progression/class_progression_Alchemist.xlsx
+++ b/tietokanta/class_progression/class_progression_Alchemist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB81168-E150-41E9-B1A0-06EF01BB2A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC99184-1C9C-4166-B9E4-4847F8790756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t>Ancestry|||Background|||Proficiency|||Alchemy|||Formula Book|||Alchemist Feat|||Initial Feat</t>
+  </si>
+  <si>
+    <t>Alchemist Feat|||Skill Feat</t>
+  </si>
+  <si>
+    <t>General Feat|||Skill Increase</t>
+  </si>
+  <si>
+    <t>Ability Boost|||Ancestry Feat|||Field Discovery|||Skill Increase</t>
+  </si>
+  <si>
+    <t>Alchemist Feat|||Skill Feat|||Ability Boost</t>
+  </si>
+  <si>
+    <t>Alchemical Weapon Expertise|||General Feat|||Iron Will|||Perpetual Infusions|||Skill Increase</t>
+  </si>
+  <si>
+    <t>Alchemical Expertise|||Alertness|||Ancestry Feat|||Double Brew|||Skill Increase</t>
+  </si>
+  <si>
+    <t>General Feat|||Juggernaut|||Perpetual Potency|||Skill Increase</t>
+  </si>
+  <si>
+    <t>Ancestry Feat|||Greater Field Discovery|||Light Armor Expertise|||Skill Increase|||Weapon Specialization</t>
+  </si>
+  <si>
+    <t>Ability Boost|||Alchemical Alacrity|||Evasion|||General Feat|||Skill Increase</t>
+  </si>
+  <si>
+    <t>Alchemical Mastery|||Ancestry Feat|||Perpetual Perfection|||Skill Increase</t>
+  </si>
+  <si>
+    <t>General Feat|||Light Armor Mastery|||Skill Increase</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,112 +378,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
